--- a/Framework/TestProjects/OpenAndSaveExcelTest/创建租户任务单2.xlsx
+++ b/Framework/TestProjects/OpenAndSaveExcelTest/创建租户任务单2.xlsx
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:O2"/>
   <tableColumns count="15">
     <tableColumn id="1" name="客户编号" dataDxfId="14"/>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
